--- a/Final/LCs.xlsx
+++ b/Final/LCs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BjornLarsson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D44C39-95AD-E344-9346-5C2BAB9C00B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BE930D-DDB4-1A4C-8ED7-FDB6FA2138BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{AA3A7915-9981-A349-894E-CD51D434F4DD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="LCs" localSheetId="0">Blad1!$A$1:$I$51</definedName>
+    <definedName name="LCs" localSheetId="0">Blad1!$A$1:$I$50</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -940,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B118D1-4BDC-AA4E-ABF5-CA85C592CB61}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,9 +986,38 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1003,108 +1032,108 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="H5">
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>-8</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1119,21 +1148,21 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1142,27 +1171,27 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G8">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1177,50 +1206,50 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10">
-        <v>-10</v>
-      </c>
       <c r="H10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -1232,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1244,12 +1273,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1261,10 +1290,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -1273,12 +1302,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -1290,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -1302,12 +1331,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -1319,24 +1348,24 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -1348,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>-10</v>
@@ -1360,12 +1389,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -1377,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
         <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
       </c>
       <c r="G16">
         <v>-10</v>
@@ -1389,12 +1418,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
@@ -1406,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
         <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
       </c>
       <c r="G17">
         <v>-10</v>
@@ -1418,12 +1447,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -1432,27 +1461,27 @@
         <v>40</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G18">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -1461,13 +1490,13 @@
         <v>40</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -1476,12 +1505,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -1490,13 +1519,13 @@
         <v>40</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -1505,12 +1534,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -1519,13 +1548,13 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G21">
         <v>10</v>
@@ -1534,12 +1563,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
@@ -1548,27 +1577,27 @@
         <v>40</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
@@ -1577,13 +1606,13 @@
         <v>40</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G23">
         <v>-10</v>
@@ -1592,12 +1621,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
@@ -1606,13 +1635,13 @@
         <v>40</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G24">
         <v>-10</v>
@@ -1621,12 +1650,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -1635,13 +1664,13 @@
         <v>40</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G25">
         <v>-10</v>
@@ -1650,12 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -1664,27 +1693,27 @@
         <v>40</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G26">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -1693,13 +1722,13 @@
         <v>40</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1708,41 +1737,41 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
@@ -1754,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G29">
         <v>-15</v>
@@ -1766,12 +1795,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -1780,13 +1809,13 @@
         <v>83</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G30">
         <v>-15</v>
@@ -1795,12 +1824,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
@@ -1809,13 +1838,13 @@
         <v>83</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G31">
         <v>-15</v>
@@ -1824,41 +1853,41 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G32">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -1870,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1882,12 +1911,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -1896,13 +1925,13 @@
         <v>40</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1911,12 +1940,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
@@ -1925,13 +1954,13 @@
         <v>40</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1940,12 +1969,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
@@ -1954,27 +1983,27 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -1986,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -1998,12 +2027,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -2018,21 +2047,21 @@
         <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -2047,7 +2076,7 @@
         <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>-10</v>
@@ -2056,12 +2085,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -2070,27 +2099,27 @@
         <v>40</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G40">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -2099,13 +2128,13 @@
         <v>40</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G41">
         <v>10</v>
@@ -2114,12 +2143,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
@@ -2128,27 +2157,27 @@
         <v>40</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
@@ -2157,13 +2186,13 @@
         <v>40</v>
       </c>
       <c r="D43">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G43">
         <v>-10</v>
@@ -2172,41 +2201,41 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G44">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -2218,24 +2247,24 @@
         <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -2244,27 +2273,27 @@
         <v>132</v>
       </c>
       <c r="D46">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G46">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
@@ -2276,24 +2305,24 @@
         <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="H47">
         <v>8</v>
       </c>
       <c r="I47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
@@ -2302,27 +2331,27 @@
         <v>132</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G48">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="I48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
@@ -2331,50 +2360,21 @@
         <v>132</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="H49">
         <v>-8</v>
       </c>
       <c r="I49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50">
-        <v>-10</v>
-      </c>
-      <c r="H50">
-        <v>-8</v>
-      </c>
-      <c r="I50" t="s">
         <v>144</v>
       </c>
     </row>

--- a/Final/LCs.xlsx
+++ b/Final/LCs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BjornLarsson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E085E7B5-CC70-1A4F-BD73-D8256C2C48D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C955F0-3D42-2546-879F-6377BFC19FF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{AA3A7915-9981-A349-894E-CD51D434F4DD}"/>
   </bookViews>
@@ -59,33 +59,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="200">
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>LC</t>
   </si>
   <si>
-    <t xml:space="preserve">	p0x</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	p0y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Œ≥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		Œ±</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		v0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		vspinz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	vspiny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Description</t>
-  </si>
-  <si>
     <t>1a</t>
   </si>
   <si>
@@ -657,6 +636,27 @@
   </si>
   <si>
     <t xml:space="preserve">		Volley - lång - backspin - diagonal</t>
+  </si>
+  <si>
+    <t>p0x</t>
+  </si>
+  <si>
+    <t>p0y</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>v0</t>
+  </si>
+  <si>
+    <t>vspinz</t>
+  </si>
+  <si>
+    <t>vspiny</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B118D1-4BDC-AA4E-ABF5-CA85C592CB61}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,1423 +1033,1423 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
         <v>76</v>
       </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" t="s">
-        <v>83</v>
-      </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
         <v>76</v>
       </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" t="s">
-        <v>83</v>
-      </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F44" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
         <v>154</v>
-      </c>
-      <c r="D45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" t="s">
-        <v>159</v>
-      </c>
-      <c r="F45" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" t="s">
         <v>159</v>
       </c>
-      <c r="F47" t="s">
-        <v>166</v>
-      </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F48" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
         <v>163</v>
       </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" t="s">
-        <v>170</v>
-      </c>
       <c r="I48" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" t="s">
         <v>159</v>
       </c>
-      <c r="F49" t="s">
-        <v>166</v>
-      </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
